--- a/WarehouseManager.WebPortal/wwwroot/Content/forms/palletsheets/PL_010823_0001.xlsx
+++ b/WarehouseManager.WebPortal/wwwroot/Content/forms/palletsheets/PL_010823_0001.xlsx
@@ -600,12 +600,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5715798" cy="2857899"/>
+    <xdr:ext cx="5715798" cy="2381583"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" descr="" name="PL_010823_0001"/>
